--- a/codigos.xlsx
+++ b/codigos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\el_da\Desktop\Tesis-Maestria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0626648B-57BD-43EA-AD0A-082988AA5A49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAB5AD-EA2E-45E4-AF3E-F286CA9B286E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C256A80D-81D0-46D6-A6C3-0DFDFFB51D92}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{C256A80D-81D0-46D6-A6C3-0DFDFFB51D92}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -644,12 +644,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -679,12 +691,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -694,6 +705,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1031,39 +1044,39 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
@@ -1071,13 +1084,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1">
@@ -1085,13 +1098,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="1">
@@ -1106,13 +1119,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="1">
@@ -1123,13 +1136,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="1">
@@ -1140,13 +1153,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1">
@@ -1157,13 +1170,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="1">
@@ -1174,13 +1187,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="1">
@@ -1191,13 +1204,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="1">
@@ -1208,13 +1221,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="1">
@@ -1225,13 +1238,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>86</v>
       </c>
       <c r="D12" s="1">
@@ -1242,13 +1255,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>88</v>
       </c>
       <c r="D13" s="1">
@@ -1259,13 +1272,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>90</v>
       </c>
       <c r="D14" s="1">
@@ -1284,13 +1297,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>92</v>
       </c>
       <c r="D15" s="1">
@@ -1301,13 +1314,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>3</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1">
@@ -1318,13 +1331,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="1">
@@ -1335,13 +1348,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="1">
@@ -1352,13 +1365,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="1">
@@ -1369,13 +1382,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="1">
@@ -1386,13 +1399,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="1">
@@ -1403,13 +1416,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>97</v>
       </c>
       <c r="D22" s="1">
@@ -1420,13 +1433,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="1">
@@ -1437,13 +1450,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>186</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
       <c r="D24" s="1">
@@ -1454,13 +1467,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>4</v>
       </c>
       <c r="B25" t="s">
         <v>187</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>188</v>
       </c>
       <c r="D25" s="1">
@@ -1471,13 +1484,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>190</v>
       </c>
       <c r="D26" s="1">
@@ -1488,13 +1501,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>3</v>
       </c>
       <c r="B27" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
       <c r="D27" s="1">
@@ -1505,13 +1518,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>103</v>
       </c>
       <c r="D28" s="1">
@@ -1522,13 +1535,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>192</v>
       </c>
       <c r="D29" s="1">
@@ -1539,13 +1552,13 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>4</v>
       </c>
       <c r="B30" t="s">
         <v>193</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>194</v>
       </c>
       <c r="D30" s="1">
@@ -1556,13 +1569,13 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>3</v>
       </c>
       <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>105</v>
       </c>
       <c r="D31" s="1">
@@ -1573,13 +1586,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>107</v>
       </c>
       <c r="D32" s="1">
@@ -1590,13 +1603,13 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="1">
@@ -1607,13 +1620,13 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>53</v>
       </c>
       <c r="D34" s="1">
@@ -1624,13 +1637,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>3</v>
       </c>
       <c r="B35" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="1">
@@ -1641,13 +1654,13 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="1">
@@ -1658,13 +1671,13 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>3</v>
       </c>
       <c r="B37" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>114</v>
       </c>
       <c r="D37" s="1">
@@ -1675,13 +1688,13 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>3</v>
       </c>
       <c r="B38" t="s">
         <v>115</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="1">
@@ -1692,13 +1705,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>3</v>
       </c>
       <c r="B39" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>118</v>
       </c>
       <c r="D39" s="1">
@@ -1709,13 +1722,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>27</v>
       </c>
       <c r="D40" s="1">
@@ -1726,13 +1739,13 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>55</v>
       </c>
       <c r="D41" s="1">
@@ -1743,13 +1756,13 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>3</v>
       </c>
       <c r="B42" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>121</v>
       </c>
       <c r="D42" s="1">
@@ -1760,13 +1773,13 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>3</v>
       </c>
       <c r="B43" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>123</v>
       </c>
       <c r="D43" s="1">
@@ -1777,13 +1790,13 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>3</v>
       </c>
       <c r="B44" t="s">
         <v>124</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>125</v>
       </c>
       <c r="D44" s="1">
@@ -1794,13 +1807,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>3</v>
       </c>
       <c r="B45" t="s">
         <v>126</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>127</v>
       </c>
       <c r="D45" s="1">
@@ -1811,13 +1824,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>3</v>
       </c>
       <c r="B46" t="s">
         <v>128</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>129</v>
       </c>
       <c r="D46" s="1">
@@ -1828,13 +1841,13 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>3</v>
       </c>
       <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>131</v>
       </c>
       <c r="D47" s="1">
@@ -1845,13 +1858,13 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>3</v>
       </c>
       <c r="B48" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>133</v>
       </c>
       <c r="D48" s="1">
@@ -1862,13 +1875,13 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>3</v>
       </c>
       <c r="B49" t="s">
         <v>134</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>135</v>
       </c>
       <c r="D49" s="1">
@@ -1879,13 +1892,13 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>3</v>
       </c>
       <c r="B50" t="s">
         <v>136</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>137</v>
       </c>
       <c r="D50" s="1">
@@ -1896,13 +1909,13 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="1">
@@ -1913,13 +1926,13 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>2</v>
       </c>
       <c r="B52" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>57</v>
       </c>
       <c r="D52" s="1">
@@ -1930,13 +1943,13 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>2</v>
       </c>
       <c r="B53" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="1">
@@ -1947,13 +1960,13 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="1">
@@ -1964,13 +1977,13 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>2</v>
       </c>
       <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>63</v>
       </c>
       <c r="D55" s="1">
@@ -1981,13 +1994,13 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>65</v>
       </c>
       <c r="D56" s="1">
@@ -1998,13 +2011,13 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>3</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>140</v>
       </c>
       <c r="D57" s="1">
@@ -2015,13 +2028,13 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>3</v>
       </c>
       <c r="B58" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>142</v>
       </c>
       <c r="D58" s="1">
@@ -2032,13 +2045,13 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>3</v>
       </c>
       <c r="B59" t="s">
         <v>143</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="1">
@@ -2049,13 +2062,13 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>3</v>
       </c>
       <c r="B60" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>146</v>
       </c>
       <c r="D60" s="1">
@@ -2066,13 +2079,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>3</v>
       </c>
       <c r="B61" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" s="1">
@@ -2083,13 +2096,13 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>67</v>
       </c>
       <c r="D62" s="1">
@@ -2100,13 +2113,13 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="1">
@@ -2117,13 +2130,13 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>71</v>
       </c>
       <c r="D64" s="1">
@@ -2134,13 +2147,13 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>73</v>
       </c>
       <c r="D65" s="1">
@@ -2151,13 +2164,13 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>148</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="1">
@@ -2168,13 +2181,13 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>3</v>
       </c>
       <c r="B67" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>151</v>
       </c>
       <c r="D67" s="1">
@@ -2185,13 +2198,13 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>3</v>
       </c>
       <c r="B68" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>153</v>
       </c>
       <c r="D68" s="1">
@@ -2202,13 +2215,13 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>74</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>75</v>
       </c>
       <c r="D69" s="1">
@@ -2219,13 +2232,13 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="1">
@@ -2236,13 +2249,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>79</v>
       </c>
       <c r="D71" s="1">
@@ -2253,13 +2266,13 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="2">
         <v>3</v>
       </c>
       <c r="B72" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>155</v>
       </c>
       <c r="D72" s="1">
@@ -2270,13 +2283,13 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>3</v>
       </c>
       <c r="B73" t="s">
         <v>156</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>157</v>
       </c>
       <c r="D73" s="1">
@@ -2287,13 +2300,13 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>3</v>
       </c>
       <c r="B74" t="s">
         <v>158</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>159</v>
       </c>
       <c r="D74" s="1">
@@ -2304,13 +2317,13 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>3</v>
       </c>
       <c r="B75" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>161</v>
       </c>
       <c r="D75" s="1">
@@ -2321,13 +2334,13 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>3</v>
       </c>
       <c r="B76" t="s">
         <v>162</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" s="1">
@@ -2338,13 +2351,13 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>2</v>
       </c>
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>81</v>
       </c>
       <c r="D77" s="1">
@@ -2355,13 +2368,13 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>83</v>
       </c>
       <c r="D78" s="1">
@@ -2372,13 +2385,13 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>3</v>
       </c>
       <c r="B79" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>164</v>
       </c>
       <c r="D79" s="1">
@@ -2389,13 +2402,13 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+      <c r="A80" s="2">
         <v>3</v>
       </c>
       <c r="B80" t="s">
         <v>165</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>166</v>
       </c>
       <c r="D80" s="1">
@@ -2406,13 +2419,13 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>3</v>
       </c>
       <c r="B81" t="s">
         <v>167</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>168</v>
       </c>
       <c r="D81" s="1">
@@ -2423,13 +2436,13 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>3</v>
       </c>
       <c r="B82" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>170</v>
       </c>
       <c r="D82" s="1">
@@ -2440,13 +2453,13 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>3</v>
       </c>
       <c r="B83" t="s">
         <v>171</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>172</v>
       </c>
       <c r="D83" s="1">
@@ -2457,13 +2470,13 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>3</v>
       </c>
       <c r="B84" t="s">
         <v>173</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>174</v>
       </c>
       <c r="D84" s="1">
@@ -2474,13 +2487,13 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>3</v>
       </c>
       <c r="B85" t="s">
         <v>175</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>176</v>
       </c>
       <c r="D85" s="1">
@@ -2491,13 +2504,13 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>177</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>178</v>
       </c>
       <c r="D86" s="1">
@@ -2508,13 +2521,13 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>3</v>
       </c>
       <c r="B87" t="s">
         <v>179</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>180</v>
       </c>
       <c r="D87" s="1">
@@ -2525,13 +2538,13 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>3</v>
       </c>
       <c r="B88" t="s">
         <v>181</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>182</v>
       </c>
       <c r="D88" s="1">
@@ -2542,13 +2555,13 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>3</v>
       </c>
       <c r="B89" t="s">
         <v>183</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>184</v>
       </c>
       <c r="D89" s="1">
@@ -2559,13 +2572,13 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>3</v>
       </c>
       <c r="B90" t="s">
         <v>185</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" s="1">
@@ -2576,13 +2589,13 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>2</v>
       </c>
       <c r="B91" t="s">
         <v>84</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="D91" s="1">
@@ -2593,13 +2606,13 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>1</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="1">
@@ -2607,13 +2620,13 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>1</v>
       </c>
       <c r="B94" t="s">
         <v>9</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="1">
@@ -2621,13 +2634,13 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>1</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>12</v>
       </c>
       <c r="D95" s="1">
@@ -2635,13 +2648,13 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>1</v>
       </c>
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="1">
@@ -2649,13 +2662,13 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>1</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="1">
@@ -2663,13 +2676,13 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>1</v>
       </c>
       <c r="B98" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>18</v>
       </c>
       <c r="D98" s="1">
@@ -2677,13 +2690,13 @@
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>1</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="1">
@@ -2691,13 +2704,13 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>1</v>
       </c>
       <c r="B100" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s">
         <v>23</v>
       </c>
       <c r="D100" s="1">
@@ -2705,13 +2718,13 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>1</v>
       </c>
       <c r="B101" t="s">
         <v>24</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>25</v>
       </c>
       <c r="D101" s="1">
@@ -2719,13 +2732,13 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>1</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" s="1">
@@ -2734,5 +2747,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>